--- a/Test/Assets/StreamingAssets/MainTask.xlsx
+++ b/Test/Assets/StreamingAssets/MainTask.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC366725-1AE2-406C-809E-607CC94987CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975E859-DF1A-46B4-8CC8-472A0A4664AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>将背包中所有垃圾扔进对应的垃圾桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +465,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -661,6 +669,9 @@
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12">
         <v>27</v>
       </c>
@@ -776,6 +787,9 @@
       </c>
       <c r="B19">
         <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
       </c>
       <c r="D19">
         <v>3</v>
